--- a/INDIVIDUAL_ARGUMENTS/plasticb_bad.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/plasticb_bad.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="173" firstSheet="0" activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-  </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>#id</t>
   </si>
@@ -29,190 +28,286 @@
     <t>The growth in bottled water production has increased water extraction in areas near bottling plants, leading to water shortages that affect nearby consumers and farmers. In addition to the millions of gallons of water used in the plastic-making process, two gallons of water are wasted in the purification process for every gallon that goes into the bottles.</t>
   </si>
   <si>
+    <t>358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.4,0.3,0.25,0.13,0.0</t>
+  </si>
+  <si>
     <t>arg219279</t>
   </si>
   <si>
     <t>Water bottle usage, although maybe a leading corporate industry, is not worth making the environment worse than it already is. These bottles will not start to decompose for another 700 years.</t>
   </si>
   <si>
+    <t>191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.6,0.25,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219227</t>
   </si>
   <si>
     <t>In New York City alone, the transportation of bottled water from western Europe released an estimated 3,800 tons of global warming pollution into the atmosphere. In California, 18 million gallons of bottled water were shipped in from Fiji in 2006, producing about 2,500 tons of global warming pollution.</t>
   </si>
   <si>
+    <t>303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219292</t>
   </si>
   <si>
     <t>Yeah I have a bottle of water next to me its no bid deal!</t>
   </si>
   <si>
+    <t>57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219274</t>
   </si>
   <si>
     <t>If you don't save the bottled water for an emergency you are not thinking about later you are thinking about now. You are drinking bottled water when you don't even need to. Bottle water and tap water is the same thing. Bottled water-has more waste and you have to pay for it. Tap water-has all the same things as bottled except no price and no waste</t>
   </si>
   <si>
+    <t>350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.2,0.35,0.3,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219307</t>
   </si>
   <si>
     <t>I don't ever wanna be here. Like punching in a dream breathing life into my nightmare. If it falls apart I would surely wake it . Bright lights turn me clean. This is worse than it seems</t>
   </si>
   <si>
+    <t>186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219256</t>
   </si>
   <si>
     <t>Bottled water produces up to 1.5 million tons of plastic waste per year. Plastic requires up to 47 million gallons of oil per year to produce. And while the plastic used to bottle beverages is of high quality and in demand by recyclers, over 80 percent of plastic bottles are simply thrown away.</t>
   </si>
   <si>
+    <t>295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.6,0.4,0.45,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219228</t>
   </si>
   <si>
     <t>He doesn't give high fives; only high sixes   He is the Godfather's Godfather   He once taught a german shepherd to bark in spanish..</t>
   </si>
   <si>
+    <t>133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0</t>
+  </si>
+  <si>
     <t>arg219210</t>
   </si>
   <si>
     <t>A drop of water is worth more than a sack of gold to a thirsty man</t>
   </si>
   <si>
+    <t>66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.2,0.05,0.05,0.13,0.25</t>
+  </si>
+  <si>
     <t>arg219461</t>
   </si>
   <si>
     <t>Yes it is creating SIERIOUS issues to the envirnment. When people finally realize that is in turn hurting us to as humans maybe they won't want that plastic after all!</t>
   </si>
   <si>
+    <t>167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.2,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219212</t>
   </si>
   <si>
     <t>Bottled water should be only used for emergencies weather it be natural or human disaster. To help people in need and not pollute in the environment and harm habitats by dumping in the ocean or in landfills. Plastic doesn't decompose so in that case do not use on for emergencies.</t>
   </si>
   <si>
+    <t>280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.8,0.3,0.4,0.06,0.0</t>
+  </si>
+  <si>
     <t>arg219313</t>
   </si>
   <si>
     <t>well with our water bottle consumption on the planet earth, we could cover all of mexico 3 Times, of could that would be a lot of "rich" in their mind Mexicans.</t>
   </si>
   <si>
+    <t>160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.1,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219254</t>
   </si>
   <si>
     <t>Take, for instance, Pepsi's Aquafina or Coca-Cola's Dasani bottled water. Both are sold in 20 ounce sizes and can be purchased from vending machines alongside soft drinks - and at the same price. Assuming you can find a $1 machine, that works out to 5 cents an ounce. These two brands are essentially filtered tap water, bottled close to their distribution point. Most municipal water costs less than 1 cent per gallon.  So why would you pay for something that comes out of your sink.</t>
   </si>
   <si>
+    <t>484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.2,0.3,0.3,0.19,0.0</t>
+  </si>
+  <si>
     <t>arg219255</t>
   </si>
   <si>
     <t>People drink water every day and are oblivious to the fact that they are destroying are own planet</t>
   </si>
   <si>
+    <t>98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.4,0.15,0.15,0.06,0.25</t>
+  </si>
+  <si>
     <t>arg219204</t>
   </si>
   <si>
     <t>Yes I do feel that the consumption of water bottles should not be allowed anywhere unless in the case of emergency. Plastic bottles can leak chemicals after a period of time. Water bottles also are almost never recycled, and end up in landfills which lead to pollution of our environment. They take 700 years to start to decompose. 90% of the cost is the bottle itself... The water is usually tap water, and is not regulated. Even if tap water is dirty, you can easily clean it out with leaves, moss, and some water cleanser. Nearly one in five tested water bottles have bacteria anyway.</t>
   </si>
   <si>
+    <t>587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.8,0.5,0.5,0.13,0.0</t>
+  </si>
+  <si>
     <t>arg219285</t>
   </si>
   <si>
     <t>There are direct links to drinking bottled water and certain types of disease, even cancer.</t>
   </si>
   <si>
+    <t>91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219269</t>
   </si>
   <si>
     <t>The next level thinks he is the next level.   Atlas would drop the world for a chance to shake his hand.</t>
   </si>
   <si>
+    <t>104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219288</t>
   </si>
   <si>
     <t>this is a load of bull excrament. These arguments are not factual and make your team seem like a bunch of foolish fools.</t>
   </si>
   <si>
+    <t>120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0</t>
+  </si>
+  <si>
     <t>arg219270</t>
   </si>
   <si>
     <t>Bottled water is not strictly regulated while tap water is, so you have no idea what you are drinking when you drink bottled water.</t>
   </si>
   <si>
+    <t>131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219239</t>
   </si>
   <si>
     <t>Sheep count him to fall asleep.   he won the 1995 world series of poker using uno cards.</t>
   </si>
   <si>
+    <t>88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.0,0.0,0.0,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219295</t>
   </si>
   <si>
     <t>The major water produceing companies are stealing water from our lakes in that case killing off habitats for criters that like water like platypus.</t>
   </si>
   <si>
+    <t>147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.2,0.05,0.1,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219213</t>
   </si>
   <si>
     <t>Estimates variously place worldwide bottled water sales at between $50 and $100 billion each year, with the market expanding at the startling annual rate of 7 percent. Bottled water is big business. But in terms of sustainability, bottled water is a dry well.</t>
   </si>
   <si>
+    <t>259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.15,0.15,0.06,0.25</t>
+  </si>
+  <si>
     <t>arg219232</t>
   </si>
   <si>
     <t>The high price of bottled water is not the water but, in actuality, the cost of the bottling, packaging, shipping, marketing, retailing and transporting it all over the globe</t>
   </si>
   <si>
+    <t>174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.2,0.2,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219241</t>
   </si>
   <si>
     <t>It's costly, wasteful and distracts from the brass ring of public health: the construction and maintenance of safe municipal water systems.</t>
   </si>
   <si>
+    <t>139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.05,0.15,0.06,0.25</t>
+  </si>
+  <si>
     <t>arg219282</t>
   </si>
   <si>
     <t>Profits HA you want money or do you want to live Longer well without water have fun with that</t>
   </si>
   <si>
+    <t>93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.2,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219262</t>
   </si>
   <si>
     <t>FISH ARE DROWNING, THE FISH ARE DROWNING.  Don't worryz potato U is not alone</t>
   </si>
   <si>
+    <t>77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219246</t>
   </si>
   <si>
     <t>Water bottles are bad. Water bottles are bad because it causes pollution. Also some people sell water battles that have bacteria in it depending on were they get the water. Water bottles also cost more than tap water. Water systems are aging and remains hundreds of chemical contaminants in the water.</t>
   </si>
   <si>
+    <t>301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.6,0.35,0.35,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219278</t>
   </si>
   <si>
     <t>Over 1.5 million barrels of oil were used to make the plastic bottles consumed in the US last year-and that doesn't include the petroleum used to transport them. That's enough petroleum to power 100,000 automobiles for a year.</t>
   </si>
   <si>
+    <t>226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.4,0.2,0.25,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219233</t>
   </si>
   <si>
     <t>Water bottles, good or bad? Many people believe plastic water bottles to be good. But the truth is water bottles are polluting land and unnecessary. Plastic water bottles should only be used in emergency purposes only. The water in those plastic are only filtered tap water. In an emergency situation like Katrina no one had access to tap water. In a situation like this water bottles are good because it provides the people in need. Other than that water bottles should not be legal because it pollutes the land and big companies get 1000% of the profit.</t>
   </si>
   <si>
+    <t>555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.8,0.4,0.4,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219218</t>
   </si>
   <si>
     <t>Plastic can kill many types of fish species. There have been 26 pieces of fish found in one single fish. Fish are extremly vital to the environment as a food source for birds which eat bugs therfore the cycle of life.</t>
   </si>
   <si>
+    <t>217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.4,0.15,0.15,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219275</t>
   </si>
   <si>
     <t>The other side is only posting song lyrics! That has nothing to do with water!</t>
   </si>
   <si>
+    <t>78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.05,0.05,0.0,0.0</t>
+  </si>
+  <si>
     <t>arg219261</t>
   </si>
   <si>
     <t>Water bottles can easily be made into long term fiber materials, like clothing or carpet. It is easy to just fill cup with water and re use it.</t>
+  </si>
+  <si>
+    <t>143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.4,0.1,0.1,0.0,0.0</t>
   </si>
 </sst>
 </file>
@@ -220,41 +315,45 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="4">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -262,337 +361,702 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="6">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="1"/>
+    <cellStyle builtinId="5" name="Percent" xfId="2"/>
+    <cellStyle builtinId="4" name="Currency" xfId="3"/>
+    <cellStyle builtinId="3" name="Comma" xfId="4"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A5" view="normal" windowProtection="0" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B5" activeCellId="0" pane="topLeft" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.90816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="131.974489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col customWidth="1" max="1" min="1" style="1" width="9.90816326530612"/>
+    <col customWidth="1" max="2" min="2" style="1" width="131.974489795918"/>
+    <col customWidth="1" max="1025" min="3" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row customHeight="1" s="1" r="1" ht="12.8" spans="1:3">
+      <c s="0" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c s="0" r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row customHeight="1" s="1" r="2" ht="12.8" spans="1:3">
+      <c s="0" r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c s="0" r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="3" ht="12.8" spans="1:3">
+      <c s="0" r="A3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c s="0" r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row customHeight="1" s="1" r="4" ht="12.8" spans="1:3">
+      <c s="0" r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c s="0" r="B4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="5" ht="12.8" spans="1:3">
+      <c s="0" r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c s="0" r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row customHeight="1" s="1" r="6" ht="12.8" spans="1:3">
+      <c s="0" r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c s="0" r="B6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="7" ht="12.8" spans="1:3">
+      <c s="0" r="A7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c s="0" r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+    <row customHeight="1" s="1" r="8" ht="12.8" spans="1:3">
+      <c s="0" r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c s="0" r="B8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="9" ht="12.8" spans="1:3">
+      <c s="0" r="A9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c s="0" r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row customHeight="1" s="1" r="10" ht="12.8" spans="1:3">
+      <c s="0" r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c s="0" r="B10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="C10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="11" ht="12.8" spans="1:3">
+      <c s="0" r="A11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c s="0" r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+    <row customHeight="1" s="1" r="12" ht="12.8" spans="1:3">
+      <c s="0" r="A12" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c s="0" r="B12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="C12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="13" ht="12.8" spans="1:3">
+      <c s="0" r="A13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c s="0" r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row customHeight="1" s="1" r="14" ht="12.8" spans="1:3">
+      <c s="0" r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c s="0" r="B14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="15" ht="12.8" spans="1:3">
+      <c s="0" r="A15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c s="0" r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row customHeight="1" s="1" r="16" ht="12.8" spans="1:3">
+      <c s="0" r="A16" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c s="0" r="B16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="17" ht="12.8" spans="1:3">
+      <c s="0" r="A17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c s="0" r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+    <row customHeight="1" s="1" r="18" ht="12.8" spans="1:3">
+      <c s="0" r="A18" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c s="0" r="B18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="C18" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="19" ht="12.8" spans="1:3">
+      <c s="0" r="A19" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c s="0" r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+    <row customHeight="1" s="1" r="20" ht="12.8" spans="1:3">
+      <c s="0" r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c s="0" r="B20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="21" ht="12.8" spans="1:3">
+      <c s="0" r="A21" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c s="0" r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row customHeight="1" s="1" r="22" ht="12.8" spans="1:3">
+      <c s="0" r="A22" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c s="0" r="B22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="0" t="s">
+    </row>
+    <row customHeight="1" s="1" r="23" ht="12.8" spans="1:3">
+      <c s="0" r="A23" t="s">
         <v>65</v>
       </c>
+      <c s="0" r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="24" ht="12.8" spans="1:3">
+      <c s="0" r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c s="0" r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="25" ht="12.8" spans="1:3">
+      <c s="0" r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c s="0" r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="26" ht="12.8" spans="1:3">
+      <c s="0" r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c s="0" r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="27" ht="12.8" spans="1:3">
+      <c s="0" r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c s="0" r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="28" ht="12.8" spans="1:3">
+      <c s="0" r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c s="0" r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="29" ht="12.8" spans="1:3">
+      <c s="0" r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c s="0" r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="30" ht="12.8" spans="1:3">
+      <c s="0" r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c s="0" r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="31" ht="12.8" spans="1:3">
+      <c s="0" r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c s="0" r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="32" ht="12.8" spans="1:3">
+      <c s="0" r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c s="0" r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row customHeight="1" s="1" r="33" ht="12.8" spans="1:3">
+      <c s="0" r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c s="0" r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
+  <pageMargins bottom="1.05277777777778" footer="0.7875" header="0.7875" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="1" usePrinterDefaults="0" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INDIVIDUAL_ARGUMENTS/plasticb_bad.xlsx
+++ b/INDIVIDUAL_ARGUMENTS/plasticb_bad.xlsx
@@ -28,7 +28,7 @@
     <t>The growth in bottled water production has increased water extraction in areas near bottling plants, leading to water shortages that affect nearby consumers and farmers. In addition to the millions of gallons of water used in the plastic-making process, two gallons of water are wasted in the purification process for every gallon that goes into the bottles.</t>
   </si>
   <si>
-    <t>358,0.0,18.74,0.0,0.02,1.0,0.0,0.0,0.0,0.4,0.3,0.25,0.13,0.0</t>
+    <t>28.5,6.28,1.53,0.86,1.78,0.0,18.74,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.39,0.05,0.16,0.0,0.0,0.0,0.05,0.27,0.0,0.0,6.48</t>
   </si>
   <si>
     <t>arg219279</t>
@@ -37,7 +37,7 @@
     <t>Water bottle usage, although maybe a leading corporate industry, is not worth making the environment worse than it already is. These bottles will not start to decompose for another 700 years.</t>
   </si>
   <si>
-    <t>191,0.5,18.09,0.0,0.0,1.0,0.0,0.03,0.0,0.6,0.25,0.25,0.0,0.0</t>
+    <t>15.5,6.16,0.83,0.86,0.97,0.5,18.09,0.0,0.0,1.0,3,0,0.0,0.03,0.0,0.19,0.13,0.19,0.13,0.13,0.03,0.03,0.0,0.0,0.0,9.92</t>
   </si>
   <si>
     <t>arg219227</t>
@@ -46,7 +46,7 @@
     <t>In New York City alone, the transportation of bottled water from western Europe released an estimated 3,800 tons of global warming pollution into the atmosphere. In California, 18 million gallons of bottled water were shipped in from Fiji in 2006, producing about 2,500 tons of global warming pollution.</t>
   </si>
   <si>
-    <t>303,0.0,20.0,0.0,0.0,1.0,0.0,0.08,0.0,0.2,0.25,0.35,0.0,0.0</t>
+    <t>24.0,6.31,1.29,0.86,1.49,0.0,20.0,0.0,0.0,1.0,14,0,0.0,0.08,13.79,0.27,0.13,0.13,0.0,0.0,0.0,0.04,0.18,0.0,0.0,6.85</t>
   </si>
   <si>
     <t>arg219292</t>
@@ -55,7 +55,7 @@
     <t>Yeah I have a bottle of water next to me its no bid deal!</t>
   </si>
   <si>
-    <t>57,0.0,5.61,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.1,0.1,0.0,0.0</t>
+    <t>14.0,4.07,0.38,0.43,0.87,0.0,5.61,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.0,0.0,0.21,0.0,0.0,0.0,0.0,21.2</t>
   </si>
   <si>
     <t>arg219274</t>
@@ -64,7 +64,7 @@
     <t>If you don't save the bottled water for an emergency you are not thinking about later you are thinking about now. You are drinking bottled water when you don't even need to. Bottle water and tap water is the same thing. Bottled water-has more waste and you have to pay for it. Tap water-has all the same things as bottled except no price and no waste</t>
   </si>
   <si>
-    <t>350,0.0,11.29,0.0,0.03,0.8,0.0,0.0,0.0,0.2,0.35,0.3,0.0,0.0</t>
+    <t>13.2,5.3,1.77,2.15,0.82,0.0,11.29,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.21,0.15,0.21,0.05,0.05,0.09,0.0,0.0,0.0,0.0,11.58</t>
   </si>
   <si>
     <t>arg219307</t>
@@ -73,7 +73,7 @@
     <t>I don't ever wanna be here. Like punching in a dream breathing life into my nightmare. If it falls apart I would surely wake it . Bright lights turn me clean. This is worse than it seems</t>
   </si>
   <si>
-    <t>186,0.0,8.65,0.0,0.03,0.8,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.0</t>
+    <t>7.4,5.03,0.99,2.15,0.46,0.0,8.65,0.0,0.03,0.8,0,0,0.0,0.0,0.0,0.14,0.05,0.3,0.08,0.08,0.19,0.0,0.0,0.0,0.0,1.29</t>
   </si>
   <si>
     <t>arg219256</t>
@@ -82,7 +82,7 @@
     <t>Bottled water produces up to 1.5 million tons of plastic waste per year. Plastic requires up to 47 million gallons of oil per year to produce. And while the plastic used to bottle beverages is of high quality and in demand by recyclers, over 80 percent of plastic bottles are simply thrown away.</t>
   </si>
   <si>
-    <t>295,0.0,15.47,0.0,0.0,1.33,0.0,0.06,0.0,0.6,0.4,0.45,0.0,0.0</t>
+    <t>17.67,5.57,1.42,1.29,1.1,0.0,15.47,0.0,0.0,1.33,6,0,0.0,0.06,0.0,0.26,0.08,0.13,0.02,0.02,0.0,0.0,0.0,0.0,0.0,8.26</t>
   </si>
   <si>
     <t>arg219228</t>
@@ -91,7 +91,7 @@
     <t>He doesn't give high fives; only high sixes   He is the Godfather's Godfather   He once taught a german shepherd to bark in spanish..</t>
   </si>
   <si>
-    <t>133,0.0,13.06,0.0,0.0,2.0,0.0,0.0,0.0,0.0,0.05,0.05,0.13,0.0</t>
+    <t>23.0,5.78,0.62,0.43,1.43,0.0,13.06,0.0,0.0,2.0,0,0,0.0,0.0,0.0,0.17,0.17,0.17,0.09,0.09,0.13,0.0,0.0,0.0,0.0,1.1</t>
   </si>
   <si>
     <t>arg219210</t>
@@ -100,7 +100,7 @@
     <t>A drop of water is worth more than a sack of gold to a thirsty man</t>
   </si>
   <si>
-    <t>66,0.0,6.6,0.0,0.0,0.0,0.0,0.0,0.0,0.2,0.05,0.05,0.13,0.25</t>
+    <t>16.0,4.13,0.43,0.43,1.0,0.0,6.6,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.38,0.13,0.06,0.0,0.0,0.0,0.0,0.0,0.25,0.25,9.71</t>
   </si>
   <si>
     <t>arg219461</t>
@@ -109,7 +109,7 @@
     <t>Yes it is creating SIERIOUS issues to the envirnment. When people finally realize that is in turn hurting us to as humans maybe they won't want that plastic after all!</t>
   </si>
   <si>
-    <t>167,0.5,13.98,0.0,0.07,1.0,0.0,0.03,0.0,0.2,0.1,0.1,0.0,0.0</t>
+    <t>15.0,5.57,0.8,0.86,0.93,0.5,13.98,0.0,0.07,1.0,0,0,0.0,0.03,0.0,0.1,0.0,0.23,0.07,0.07,0.1,0.0,0.0,0.0,0.0,2.6</t>
   </si>
   <si>
     <t>arg219212</t>
@@ -118,7 +118,7 @@
     <t>Bottled water should be only used for emergencies weather it be natural or human disaster. To help people in need and not pollute in the environment and harm habitats by dumping in the ocean or in landfills. Plastic doesn't decompose so in that case do not use on for emergencies.</t>
   </si>
   <si>
-    <t>280,0.0,14.65,0.0,0.0,1.0,0.0,0.0,0.0,0.8,0.3,0.4,0.06,0.0</t>
+    <t>16.67,5.6,1.34,1.29,1.04,0.0,14.65,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.08,0.2,0.08,0.08,0.02,0.04,0.0,0.0,0.0,8.44</t>
   </si>
   <si>
     <t>arg219313</t>
@@ -127,7 +127,7 @@
     <t>well with our water bottle consumption on the planet earth, we could cover all of mexico 3 Times, of could that would be a lot of "rich" in their mind Mexicans.</t>
   </si>
   <si>
-    <t>160,0.0,13.2,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.1,0.1,0.0,0.0</t>
+    <t>31.0,5.16,0.83,0.43,1.93,0.0,13.2,0.0,0.0,1.0,1,0,0.0,0.0,0.0,0.29,0.0,0.06,0.03,0.03,0.1,0.03,0.0,0.0,0.0,9.5</t>
   </si>
   <si>
     <t>arg219254</t>
@@ -136,7 +136,7 @@
     <t>Take, for instance, Pepsi's Aquafina or Coca-Cola's Dasani bottled water. Both are sold in 20 ounce sizes and can be purchased from vending machines alongside soft drinks - and at the same price. Assuming you can find a $1 machine, that works out to 5 cents an ounce. These two brands are essentially filtered tap water, bottled close to their distribution point. Most municipal water costs less than 1 cent per gallon.  So why would you pay for something that comes out of your sink.</t>
   </si>
   <si>
-    <t>484,0.0,15.22,0.0,0.05,1.0,0.0,0.02,0.0,0.2,0.3,0.3,0.19,0.0</t>
+    <t>14.17,5.69,2.28,2.58,0.88,0.0,15.22,0.0,0.05,1.0,5,0,0.0,0.02,10.34,0.24,0.12,0.15,0.04,0.04,0.05,0.01,0.09,0.0,0.0,5.33</t>
   </si>
   <si>
     <t>arg219255</t>
@@ -145,7 +145,7 @@
     <t>People drink water every day and are oblivious to the fact that they are destroying are own planet</t>
   </si>
   <si>
-    <t>98,0.0,14.57,0.0,0.0,0.0,0.0,0.0,0.0,0.4,0.15,0.15,0.06,0.25</t>
+    <t>18.0,5.44,0.48,0.43,1.12,0.0,14.57,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.28,0.11,0.28,0.0,0.0,0.06,0.06,0.0,0.25,0.25,9.63</t>
   </si>
   <si>
     <t>arg219204</t>
@@ -154,7 +154,7 @@
     <t>Yes I do feel that the consumption of water bottles should not be allowed anywhere unless in the case of emergency. Plastic bottles can leak chemicals after a period of time. Water bottles also are almost never recycled, and end up in landfills which lead to pollution of our environment. They take 700 years to start to decompose. 90% of the cost is the bottle itself... The water is usually tap water, and is not regulated. Even if tap water is dirty, you can easily clean it out with leaves, moss, and some water cleanser. Nearly one in five tested water bottles have bacteria anyway.</t>
   </si>
   <si>
-    <t>587,0.13,14.38,0.0,0.0,1.25,0.0,0.02,0.0,0.8,0.5,0.5,0.13,0.0</t>
+    <t>13.13,5.59,2.82,3.44,0.82,0.13,14.38,0.0,0.0,1.25,5,1,0.0,0.02,0.0,0.28,0.06,0.19,0.1,0.1,0.05,0.02,0.0,0.0,0.0,5.78</t>
   </si>
   <si>
     <t>arg219285</t>
@@ -163,7 +163,7 @@
     <t>There are direct links to drinking bottled water and certain types of disease, even cancer.</t>
   </si>
   <si>
-    <t>91,0.0,17.11,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.15,0.15,0.0,0.0</t>
+    <t>15.0,6.07,0.4,0.43,0.93,0.0,17.11,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.2,0.2,0.07,0.07,0.0,0.0,0.0,0.0,0.0,14.38</t>
   </si>
   <si>
     <t>arg219269</t>
@@ -172,7 +172,7 @@
     <t>The next level thinks he is the next level.   Atlas would drop the world for a chance to shake his hand.</t>
   </si>
   <si>
-    <t>104,0.0,9.38,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.0,0.0,0.0</t>
+    <t>10.5,4.95,0.56,0.86,0.65,0.0,9.38,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.1,0.14,0.0,0.0,0.1,0.0,0.0,0.0,0.0,1.5</t>
   </si>
   <si>
     <t>arg219288</t>
@@ -181,7 +181,7 @@
     <t>this is a load of bull excrament. These arguments are not factual and make your team seem like a bunch of foolish fools.</t>
   </si>
   <si>
-    <t>120,0.0,11.79,0.0,0.04,1.0,0.0,0.0,0.0,0.0,0.0,0.0,0.13,0.0</t>
+    <t>11.5,5.22,0.62,0.86,0.72,0.0,11.79,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.3,0.09,0.17,0.04,0.04,0.04,0.0,0.0,0.0,0.0,0.89</t>
   </si>
   <si>
     <t>arg219270</t>
@@ -190,7 +190,7 @@
     <t>Bottled water is not strictly regulated while tap water is, so you have no idea what you are drinking when you drink bottled water.</t>
   </si>
   <si>
-    <t>131,0.0,14.57,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.2,0.2,0.0,0.0</t>
+    <t>24.0,5.46,0.64,0.43,1.49,0.0,14.57,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.17,0.08,0.29,0.08,0.08,0.13,0.0,0.0,0.0,0.0,17.43</t>
   </si>
   <si>
     <t>arg219239</t>
@@ -199,7 +199,7 @@
     <t>Sheep count him to fall asleep.   he won the 1995 world series of poker using uno cards.</t>
   </si>
   <si>
-    <t>88,0.0,9.53,0.0,0.06,1.0,0.0,0.06,0.0,0.0,0.0,0.0,0.0,0.0</t>
+    <t>8.5,5.18,0.46,0.86,0.53,0.0,9.53,0.0,0.06,1.0,4,0,0.0,0.06,0.0,0.35,0.06,0.18,0.0,0.0,0.12,0.0,0.0,0.0,0.0,1.0</t>
   </si>
   <si>
     <t>arg219295</t>
@@ -208,7 +208,7 @@
     <t>The major water produceing companies are stealing water from our lakes in that case killing off habitats for criters that like water like platypus.</t>
   </si>
   <si>
-    <t>147,0.0,18.74,0.0,0.08,1.0,0.0,0.0,0.0,0.2,0.05,0.1,0.0,0.0</t>
+    <t>24.0,6.13,0.64,0.43,1.49,0.0,18.74,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.38,0.04,0.21,0.0,0.0,0.04,0.0,0.0,0.0,0.0,6.55</t>
   </si>
   <si>
     <t>arg219213</t>
@@ -217,7 +217,7 @@
     <t>Estimates variously place worldwide bottled water sales at between $50 and $100 billion each year, with the market expanding at the startling annual rate of 7 percent. Bottled water is big business. But in terms of sustainability, bottled water is a dry well.</t>
   </si>
   <si>
-    <t>259,0.33,17.7,0.0,0.0,1.0,0.0,0.05,0.0,0.2,0.15,0.15,0.06,0.25</t>
+    <t>14.33,6.02,1.15,1.29,0.89,0.33,17.7,0.0,0.0,1.0,6,0,0.0,0.05,0.0,0.3,0.14,0.12,0.05,0.05,0.0,0.02,0.09,0.25,0.25,6.45</t>
   </si>
   <si>
     <t>arg219232</t>
@@ -226,7 +226,7 @@
     <t>The high price of bottled water is not the water but, in actuality, the cost of the bottling, packaging, shipping, marketing, retailing and transporting it all over the globe</t>
   </si>
   <si>
-    <t>174,1.0,17.24,0.0,0.0,0.0,0.0,0.0,0.0,0.2,0.2,0.25,0.0,0.0</t>
+    <t>29.0,6.0,0.78,0.43,1.81,1.0,17.24,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.21,0.07,0.07,0.03,0.03,0.03,0.03,0.0,0.0,0.0,10.33</t>
   </si>
   <si>
     <t>arg219241</t>
@@ -235,7 +235,7 @@
     <t>It's costly, wasteful and distracts from the brass ring of public health: the construction and maintenance of safe municipal water systems.</t>
   </si>
   <si>
-    <t>139,0.0,20.31,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.05,0.15,0.06,0.25</t>
+    <t>21.0,6.62,0.56,0.43,1.31,0.0,20.31,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.29,0.14,0.05,0.0,0.0,0.0,0.1,0.18,0.25,0.25,5.69</t>
   </si>
   <si>
     <t>arg219282</t>
@@ -244,7 +244,7 @@
     <t>Profits HA you want money or do you want to live Longer well without water have fun with that</t>
   </si>
   <si>
-    <t>93,0.0,11.42,0.0,0.0,0.0,0.0,0.05,0.0,0.2,0.05,0.05,0.0,0.0</t>
+    <t>19.0,4.89,0.51,0.43,1.18,0.0,11.42,0.0,0.0,0.0,0,0,0.0,0.05,0.0,0.21,0.0,0.32,0.05,0.05,0.11,0.0,0.0,0.0,0.0,9.57</t>
   </si>
   <si>
     <t>arg219262</t>
@@ -253,7 +253,7 @@
     <t>FISH ARE DROWNING, THE FISH ARE DROWNING.  Don't worryz potato U is not alone</t>
   </si>
   <si>
-    <t>77,0.0,9.79,0.0,0.07,0.5,0.0,0.5,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>7.0,5.5,0.38,0.86,0.44,0.0,9.79,0.0,0.07,0.5,0,0,0.0,0.5,0.0,0.14,0.0,0.14,0.14,0.14,0.0,0.0,0.0,0.0,0.0,2.25</t>
   </si>
   <si>
     <t>arg219246</t>
@@ -262,7 +262,7 @@
     <t>Water bottles are bad. Water bottles are bad because it causes pollution. Also some people sell water battles that have bacteria in it depending on were they get the water. Water bottles also cost more than tap water. Water systems are aging and remains hundreds of chemical contaminants in the water.</t>
   </si>
   <si>
-    <t>301,0.6,15.42,0.0,0.02,1.0,0.0,0.0,0.0,0.6,0.35,0.35,0.0,0.0</t>
+    <t>10.2,5.9,1.37,2.15,0.64,0.6,15.42,0.0,0.02,1.0,0,0,0.0,0.0,0.0,0.33,0.08,0.25,0.04,0.04,0.06,0.02,0.09,0.0,0.0,8.41</t>
   </si>
   <si>
     <t>arg219278</t>
@@ -271,7 +271,7 @@
     <t>Over 1.5 million barrels of oil were used to make the plastic bottles consumed in the US last year-and that doesn't include the petroleum used to transport them. That's enough petroleum to power 100,000 automobiles for a year.</t>
   </si>
   <si>
-    <t>226,0.0,15.77,0.0,0.05,1.5,0.0,0.08,0.0,0.4,0.2,0.25,0.0,0.0</t>
+    <t>19.0,5.95,1.02,0.86,1.18,0.0,15.77,0.0,0.05,1.5,8,0,0.0,0.08,3.45,0.26,0.05,0.21,0.03,0.03,0.0,0.0,0.0,0.0,0.0,5.85</t>
   </si>
   <si>
     <t>arg219233</t>
@@ -280,7 +280,7 @@
     <t>Water bottles, good or bad? Many people believe plastic water bottles to be good. But the truth is water bottles are polluting land and unnecessary. Plastic water bottles should only be used in emergency purposes only. The water in those plastic are only filtered tap water. In an emergency situation like Katrina no one had access to tap water. In a situation like this water bottles are good because it provides the people in need. Other than that water bottles should not be legal because it pollutes the land and big companies get 1000% of the profit.</t>
   </si>
   <si>
-    <t>555,0.38,14.81,0.0,0.0,1.0,0.0,0.01,0.0,0.8,0.4,0.4,0.0,0.0</t>
+    <t>12.13,5.72,2.6,3.44,0.76,0.38,14.81,0.0,0.0,1.0,4,1,0.0,0.01,3.45,0.33,0.08,0.19,0.03,0.03,0.02,0.01,0.09,0.0,0.0,7.71</t>
   </si>
   <si>
     <t>arg219218</t>
@@ -289,7 +289,7 @@
     <t>Plastic can kill many types of fish species. There have been 26 pieces of fish found in one single fish. Fish are extremly vital to the environment as a food source for birds which eat bugs therfore the cycle of life.</t>
   </si>
   <si>
-    <t>217,0.0,13.0,0.0,0.05,1.0,0.0,0.02,0.0,0.4,0.15,0.15,0.0,0.0</t>
+    <t>13.67,5.29,1.1,1.29,0.85,0.0,13.0,0.0,0.05,1.0,2,0,0.0,0.02,0.0,0.32,0.1,0.15,0.02,0.02,0.0,0.02,0.0,0.0,0.0,2.05</t>
   </si>
   <si>
     <t>arg219275</t>
@@ -298,7 +298,7 @@
     <t>The other side is only posting song lyrics! That has nothing to do with water!</t>
   </si>
   <si>
-    <t>78,0.0,10.05,0.0,0.0,1.0,0.0,0.0,0.0,0.2,0.05,0.05,0.0,0.0</t>
+    <t>7.5,5.2,0.4,0.86,0.47,0.0,10.05,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.33,0.07,0.27,0.07,0.07,0.0,0.0,0.0,0.0,0.0,12.8</t>
   </si>
   <si>
     <t>arg219261</t>
@@ -307,7 +307,7 @@
     <t>Water bottles can easily be made into long term fiber materials, like clothing or carpet. It is easy to just fill cup with water and re use it.</t>
   </si>
   <si>
-    <t>143,0.0,11.49,0.0,0.04,1.0,0.0,0.0,0.0,0.4,0.1,0.1,0.0,0.0</t>
+    <t>14.0,5.11,0.75,0.86,0.87,0.0,11.49,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.29,0.07,0.21,0.07,0.07,0.04,0.0,0.0,0.0,0.0,8.15</t>
   </si>
 </sst>
 </file>
